--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipseworkspace\FrameWorkCreation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipseworkspace 1\HrmsDemoProgram\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB41E23-7899-4B4B-A157-3661E50E9541}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739ACB85-240C-4AD8-B488-11113059125C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{101F4FD6-9FBE-44CD-A836-A513E3A400BE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{101F4FD6-9FBE-44CD-A836-A513E3A400BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,81 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>signin</t>
+    <t>bjohnpaul@0609</t>
   </si>
   <si>
-    <t>Johnpaul</t>
+    <t>bjohnpaul0609@gmail.com</t>
   </si>
   <si>
-    <t>Johninfotech23@gmail.com</t>
-  </si>
-  <si>
-    <t>backia</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Seran</t>
-  </si>
-  <si>
-    <t>seran@gmail.com</t>
-  </si>
-  <si>
-    <t>madevi</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>karthick</t>
-  </si>
-  <si>
-    <t>karthich@gmail.com</t>
-  </si>
-  <si>
-    <t>anbu</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>sugindran</t>
-  </si>
-  <si>
-    <t>Sug@gmail.com</t>
-  </si>
-  <si>
-    <t>tamil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guru </t>
-  </si>
-  <si>
-    <t>Guru@gmail.com</t>
-  </si>
-  <si>
-    <t>guryboy</t>
-  </si>
-  <si>
-    <t>krishna</t>
-  </si>
-  <si>
-    <t>krishna@gmail.com</t>
-  </si>
-  <si>
-    <t>vishnu</t>
+    <t>Pwd</t>
   </si>
 </sst>
 </file>
@@ -474,124 +411,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A4F3A-01D6-49DE-BC55-ACDA3DE6F3E6}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B036BB-5C5C-4D3C-809F-97B0D0F2B450}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{513B2244-B030-4AB5-9E0F-C9D2446456B8}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0296504D-0124-46BB-8E20-587A5B7FA924}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{FB8EE1A2-0D03-49F4-914A-0029C0E37424}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{3BB051AE-35A5-416A-9BD1-48B66C434094}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{0531A75A-C6E1-4F74-AA85-075BEB1F5C33}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E9A7773D-4DE6-411C-92DC-86975E65F336}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8B71C8A0-6E52-4230-A4C8-E59A3873C519}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{62DE0C33-793F-48D9-9371-A4460B3129CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
